--- a/altium/PCB-Tester-Board/V1/Relays.xlsx
+++ b/altium/PCB-Tester-Board/V1/Relays.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>DRV</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>X27-X26</t>
+  </si>
+  <si>
+    <t>40-103</t>
+  </si>
+  <si>
+    <t>SignalRouting</t>
+  </si>
+  <si>
+    <t>K28-K91</t>
   </si>
 </sst>
 </file>
@@ -525,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1047,17 @@
         <v>53</v>
       </c>
       <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
